--- a/模擬分析_Demo.xlsx
+++ b/模擬分析_Demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A81106-6D84-4FC8-80A1-CCBAC657BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6BF3F-A46F-4BA8-BDE9-F8774FA51CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>淨利(總利潤-固定支出)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -142,16 +142,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快篩試劑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>政府合約單價</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>快篩試劑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府合約單價</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>成品螺絲型號3</t>
   </si>
 </sst>
 </file>
@@ -862,7 +857,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="16.899999999999999" customHeight="1"/>
@@ -889,7 +884,7 @@
       </c>
       <c r="E1" s="7">
         <f>B8</f>
-        <v>-5050000</v>
+        <v>95000</v>
       </c>
       <c r="F1" s="7">
         <v>1500</v>
@@ -912,10 +907,10 @@
     </row>
     <row r="2" spans="1:11" ht="16.899999999999999" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="19">
-        <v>110</v>
+        <v>666</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>6</v>
@@ -925,22 +920,22 @@
       </c>
       <c r="F2" s="7">
         <f t="dataTable" ref="F2:K12" dt2D="1" dtr="1" r1="B2" r2="B4"/>
-        <v>1070420</v>
+        <v>335000</v>
       </c>
       <c r="G2" s="7">
-        <v>1280420</v>
+        <v>545000</v>
       </c>
       <c r="H2" s="7">
-        <v>1490420</v>
+        <v>755000</v>
       </c>
       <c r="I2" s="7">
-        <v>1700420</v>
+        <v>965000</v>
       </c>
       <c r="J2" s="7">
-        <v>1910420</v>
+        <v>1175000</v>
       </c>
       <c r="K2" s="7">
-        <v>2120420</v>
+        <v>1385000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -948,29 +943,29 @@
         <v>4</v>
       </c>
       <c r="B3" s="26">
-        <v>249.8</v>
+        <v>600</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="6">
         <v>2200</v>
       </c>
       <c r="F3" s="7">
-        <v>1195440</v>
+        <v>425000</v>
       </c>
       <c r="G3" s="7">
-        <v>1415440</v>
+        <v>645000</v>
       </c>
       <c r="H3" s="7">
-        <v>1635440</v>
+        <v>865000</v>
       </c>
       <c r="I3" s="7">
-        <v>1855440</v>
+        <v>1085000</v>
       </c>
       <c r="J3" s="7">
-        <v>2075440</v>
+        <v>1305000</v>
       </c>
       <c r="K3" s="7">
-        <v>2295440</v>
+        <v>1525000</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -985,22 +980,22 @@
         <v>2300</v>
       </c>
       <c r="F4" s="7">
-        <v>1320460</v>
+        <v>515000</v>
       </c>
       <c r="G4" s="7">
-        <v>1550460</v>
+        <v>745000</v>
       </c>
       <c r="H4" s="7">
-        <v>1780460</v>
+        <v>975000</v>
       </c>
       <c r="I4" s="7">
-        <v>2010460</v>
+        <v>1205000</v>
       </c>
       <c r="J4" s="7">
-        <v>2240460</v>
+        <v>1435000</v>
       </c>
       <c r="K4" s="7">
-        <v>2470460</v>
+        <v>1665000</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1009,29 +1004,29 @@
       </c>
       <c r="B5" s="23">
         <f>(B2-B3)*B4</f>
-        <v>-3495000.0000000005</v>
+        <v>1650000</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="6">
         <v>2400</v>
       </c>
       <c r="F5" s="7">
-        <v>1445480</v>
+        <v>605000</v>
       </c>
       <c r="G5" s="7">
-        <v>1685480</v>
+        <v>845000</v>
       </c>
       <c r="H5" s="7">
-        <v>1925480</v>
+        <v>1085000</v>
       </c>
       <c r="I5" s="7">
-        <v>2165480</v>
+        <v>1325000</v>
       </c>
       <c r="J5" s="7">
-        <v>2405480</v>
+        <v>1565000</v>
       </c>
       <c r="K5" s="7">
-        <v>2645480</v>
+        <v>1805000</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1042,22 +1037,22 @@
         <v>2500</v>
       </c>
       <c r="F6" s="7">
-        <v>1570500</v>
+        <v>695000</v>
       </c>
       <c r="G6" s="7">
-        <v>1820500</v>
+        <v>945000</v>
       </c>
       <c r="H6" s="7">
-        <v>2070500</v>
+        <v>1195000</v>
       </c>
       <c r="I6" s="7">
-        <v>2320500</v>
+        <v>1445000</v>
       </c>
       <c r="J6" s="7">
-        <v>2570500</v>
+        <v>1695000</v>
       </c>
       <c r="K6" s="7">
-        <v>2820500</v>
+        <v>1945000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1073,22 +1068,22 @@
         <v>2600</v>
       </c>
       <c r="F7" s="7">
-        <v>1695520</v>
+        <v>785000</v>
       </c>
       <c r="G7" s="7">
-        <v>1955520</v>
+        <v>1045000</v>
       </c>
       <c r="H7" s="7">
-        <v>2215520</v>
+        <v>1305000</v>
       </c>
       <c r="I7" s="7">
-        <v>2475520</v>
+        <v>1565000</v>
       </c>
       <c r="J7" s="7">
-        <v>2735520</v>
+        <v>1825000</v>
       </c>
       <c r="K7" s="7">
-        <v>2995520</v>
+        <v>2085000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1097,29 +1092,29 @@
       </c>
       <c r="B8" s="25">
         <f>B5-B7</f>
-        <v>-5050000</v>
+        <v>95000</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="6">
         <v>2700</v>
       </c>
       <c r="F8" s="7">
-        <v>1820540</v>
+        <v>875000</v>
       </c>
       <c r="G8" s="7">
-        <v>2090540</v>
+        <v>1145000</v>
       </c>
       <c r="H8" s="7">
-        <v>2360540</v>
+        <v>1415000</v>
       </c>
       <c r="I8" s="7">
-        <v>2630540</v>
+        <v>1685000</v>
       </c>
       <c r="J8" s="7">
-        <v>2900540</v>
+        <v>1955000</v>
       </c>
       <c r="K8" s="7">
-        <v>3170540</v>
+        <v>2225000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1130,22 +1125,22 @@
         <v>2800</v>
       </c>
       <c r="F9" s="7">
-        <v>1945560</v>
+        <v>965000</v>
       </c>
       <c r="G9" s="7">
-        <v>2225560</v>
+        <v>1245000</v>
       </c>
       <c r="H9" s="7">
-        <v>2505560</v>
+        <v>1525000</v>
       </c>
       <c r="I9" s="7">
-        <v>2785560</v>
+        <v>1805000</v>
       </c>
       <c r="J9" s="7">
-        <v>3065560</v>
+        <v>2085000</v>
       </c>
       <c r="K9" s="7">
-        <v>3345560</v>
+        <v>2365000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1156,22 +1151,22 @@
         <v>2900</v>
       </c>
       <c r="F10" s="7">
-        <v>2070580</v>
+        <v>1055000</v>
       </c>
       <c r="G10" s="7">
-        <v>2360580</v>
+        <v>1345000</v>
       </c>
       <c r="H10" s="7">
-        <v>2650580</v>
+        <v>1635000</v>
       </c>
       <c r="I10" s="7">
-        <v>2940580</v>
+        <v>1925000</v>
       </c>
       <c r="J10" s="7">
-        <v>3230580</v>
+        <v>2215000</v>
       </c>
       <c r="K10" s="7">
-        <v>3520580</v>
+        <v>2505000</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1182,22 +1177,22 @@
         <v>3000</v>
       </c>
       <c r="F11" s="7">
-        <v>2195600</v>
+        <v>1145000</v>
       </c>
       <c r="G11" s="7">
-        <v>2495600</v>
+        <v>1445000</v>
       </c>
       <c r="H11" s="7">
-        <v>2795600</v>
+        <v>1745000</v>
       </c>
       <c r="I11" s="7">
-        <v>3095600</v>
+        <v>2045000</v>
       </c>
       <c r="J11" s="7">
-        <v>3395600</v>
+        <v>2345000</v>
       </c>
       <c r="K11" s="7">
-        <v>3695600</v>
+        <v>2645000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -1208,22 +1203,22 @@
         <v>3100</v>
       </c>
       <c r="F12" s="5">
-        <v>2320620</v>
+        <v>1235000</v>
       </c>
       <c r="G12" s="5">
-        <v>2630620</v>
+        <v>1545000</v>
       </c>
       <c r="H12" s="5">
-        <v>2940620</v>
+        <v>1855000</v>
       </c>
       <c r="I12" s="5">
-        <v>3250620</v>
+        <v>2165000</v>
       </c>
       <c r="J12" s="5">
-        <v>3560620</v>
+        <v>2475000</v>
       </c>
       <c r="K12" s="5">
-        <v>3870620</v>
+        <v>2785000</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -1241,7 +1236,7 @@
       <c r="K13" s="35"/>
     </row>
   </sheetData>
-  <scenarios current="1" show="0" sqref="M1">
+  <scenarios current="1" show="1" sqref="M1">
     <scenario name="模擬條件1" locked="1" count="3" user="作者" comment="小洪製造成本系統模擬">
       <inputCells r="B1" val="成品螺絲型號2"/>
       <inputCells r="B2" val="566" numFmtId="176"/>
@@ -1300,14 +1295,14 @@
         <v>5</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="7">
         <f>B8</f>
-        <v>12000000</v>
+        <v>3896350</v>
       </c>
       <c r="F1" s="7">
         <v>1500</v>
@@ -1330,10 +1325,10 @@
     </row>
     <row r="2" spans="1:11" ht="16.899999999999999" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="19">
-        <v>300</v>
+        <v>666</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>6</v>
@@ -1343,22 +1338,22 @@
       </c>
       <c r="F2" s="7">
         <f t="dataTable" ref="F2:K12" dt2D="1" dtr="1" r1="B2" r2="B4"/>
+        <v>1795000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2005000</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2215000</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2425000</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2635000</v>
+      </c>
+      <c r="K2" s="7">
         <v>2845000</v>
-      </c>
-      <c r="G2" s="7">
-        <v>3055000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>3265000</v>
-      </c>
-      <c r="I2" s="7">
-        <v>3475000</v>
-      </c>
-      <c r="J2" s="7">
-        <v>3685000</v>
-      </c>
-      <c r="K2" s="7">
-        <v>3895000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1366,29 +1361,29 @@
         <v>4</v>
       </c>
       <c r="B3" s="27">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="6">
         <v>2200</v>
       </c>
       <c r="F3" s="7">
+        <v>1885000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2105000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2325000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2545000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2765000</v>
+      </c>
+      <c r="K3" s="7">
         <v>2985000</v>
-      </c>
-      <c r="G3" s="7">
-        <v>3205000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3425000</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3645000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3865000</v>
-      </c>
-      <c r="K3" s="7">
-        <v>4085000</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1403,22 +1398,22 @@
         <v>2300</v>
       </c>
       <c r="F4" s="7">
+        <v>1975000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2205000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2435000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2665000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2895000</v>
+      </c>
+      <c r="K4" s="7">
         <v>3125000</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3355000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3585000</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3815000</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4045000</v>
-      </c>
-      <c r="K4" s="7">
-        <v>4275000</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1427,29 +1422,29 @@
       </c>
       <c r="B5" s="23">
         <f>(B2-B3)*B4</f>
-        <v>12095000</v>
+        <v>3991350</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="6">
         <v>2400</v>
       </c>
       <c r="F5" s="7">
+        <v>2065000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2305000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2545000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2785000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3025000</v>
+      </c>
+      <c r="K5" s="7">
         <v>3265000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3505000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3745000</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3985000</v>
-      </c>
-      <c r="J5" s="7">
-        <v>4225000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>4465000</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1460,22 +1455,22 @@
         <v>2500</v>
       </c>
       <c r="F6" s="7">
+        <v>2155000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2405000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2655000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2905000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3155000</v>
+      </c>
+      <c r="K6" s="7">
         <v>3405000</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3655000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3905000</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4155000</v>
-      </c>
-      <c r="J6" s="7">
-        <v>4405000</v>
-      </c>
-      <c r="K6" s="7">
-        <v>4655000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1490,22 +1485,22 @@
         <v>2600</v>
       </c>
       <c r="F7" s="7">
+        <v>2245000</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2505000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2765000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3025000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3285000</v>
+      </c>
+      <c r="K7" s="7">
         <v>3545000</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3805000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4065000</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4325000</v>
-      </c>
-      <c r="J7" s="7">
-        <v>4585000</v>
-      </c>
-      <c r="K7" s="7">
-        <v>4845000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1514,29 +1509,29 @@
       </c>
       <c r="B8" s="25">
         <f>B5-B7</f>
-        <v>12000000</v>
+        <v>3896350</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="6">
         <v>2700</v>
       </c>
       <c r="F8" s="7">
+        <v>2335000</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2605000</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2875000</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3145000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3415000</v>
+      </c>
+      <c r="K8" s="7">
         <v>3685000</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3955000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4225000</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4495000</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4765000</v>
-      </c>
-      <c r="K8" s="7">
-        <v>5035000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1547,22 +1542,22 @@
         <v>2800</v>
       </c>
       <c r="F9" s="7">
+        <v>2425000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2705000</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2985000</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3265000</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3545000</v>
+      </c>
+      <c r="K9" s="7">
         <v>3825000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4105000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4385000</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4665000</v>
-      </c>
-      <c r="J9" s="7">
-        <v>4945000</v>
-      </c>
-      <c r="K9" s="7">
-        <v>5225000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1573,22 +1568,22 @@
         <v>2900</v>
       </c>
       <c r="F10" s="7">
+        <v>2515000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2805000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3095000</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3385000</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3675000</v>
+      </c>
+      <c r="K10" s="7">
         <v>3965000</v>
-      </c>
-      <c r="G10" s="7">
-        <v>4255000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4545000</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4835000</v>
-      </c>
-      <c r="J10" s="7">
-        <v>5125000</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5415000</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.899999999999999" customHeight="1">
@@ -1599,22 +1594,22 @@
         <v>3000</v>
       </c>
       <c r="F11" s="7">
+        <v>2605000</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2905000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3205000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3505000</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3805000</v>
+      </c>
+      <c r="K11" s="7">
         <v>4105000</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4405000</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4705000</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5005000</v>
-      </c>
-      <c r="J11" s="7">
-        <v>5305000</v>
-      </c>
-      <c r="K11" s="7">
-        <v>5605000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -1625,22 +1620,22 @@
         <v>3100</v>
       </c>
       <c r="F12" s="5">
+        <v>2695000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3005000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3315000</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3625000</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3935000</v>
+      </c>
+      <c r="K12" s="5">
         <v>4245000</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4555000</v>
-      </c>
-      <c r="H12" s="5">
-        <v>4865000</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5175000</v>
-      </c>
-      <c r="J12" s="5">
-        <v>5485000</v>
-      </c>
-      <c r="K12" s="5">
-        <v>5795000</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -1658,7 +1653,7 @@
       <c r="K13" s="35"/>
     </row>
   </sheetData>
-  <scenarios current="1" show="0" sqref="M1">
+  <scenarios current="1" show="1" sqref="M1">
     <scenario name="模擬條件1" locked="1" count="3" user="作者" comment="小洪製造成本系統模擬">
       <inputCells r="B1" val="成品螺絲型號2"/>
       <inputCells r="B2" val="566" numFmtId="176"/>
